--- a/src/assets/templates/template.xlsx
+++ b/src/assets/templates/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Account</t>
   </si>
@@ -28,13 +28,19 @@
     <t xml:space="preserve">Balance</t>
   </si>
   <si>
-    <t xml:space="preserve">Account #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account #3</t>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO's car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking fines</t>
   </si>
 </sst>
 </file>
@@ -135,13 +141,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -156,7 +162,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3200</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -164,7 +170,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>4500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -172,7 +178,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>9000</v>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>78000</v>
       </c>
     </row>
   </sheetData>
